--- a/frontend/src/Asset/Wip_template.xlsx
+++ b/frontend/src/Asset/Wip_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator.CC230604\Desktop\New folder\Demo_1\frontend\src\Asset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{191875B2-F08F-4F61-8CCA-AE2E79644672}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E8DEB6F-814A-4272-9695-479D40FD47D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4332" yWindow="2784" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,43 +27,43 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
-    <t>Code_Wip</t>
-  </si>
-  <si>
-    <t>Name_Wip</t>
-  </si>
-  <si>
-    <t>Code_Mold</t>
-  </si>
-  <si>
-    <t>Dimension</t>
-  </si>
-  <si>
-    <t>Chem_Grade</t>
-  </si>
-  <si>
-    <t>Weight_Per_Pcs</t>
-  </si>
-  <si>
-    <t>Pcs_Per_Mold</t>
-  </si>
-  <si>
-    <t>Pcs_Per_Set</t>
-  </si>
-  <si>
-    <t>Type_Brake</t>
-  </si>
-  <si>
-    <t>Type_Mold</t>
-  </si>
-  <si>
-    <t>Time_Per_Mold</t>
-  </si>
-  <si>
-    <t>Mold_Per_8_Hour</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Remark</t>
+    <t>Code_Wip,</t>
+  </si>
+  <si>
+    <t>Name_Wip,</t>
+  </si>
+  <si>
+    <t>รหัสแม่พิมพ์,</t>
+  </si>
+  <si>
+    <t>ขนาด(กว้าง*หนา-ยาว),</t>
+  </si>
+  <si>
+    <t>เกรดเคมี,</t>
+  </si>
+  <si>
+    <t>น้ำหนักต่อชิ้น,</t>
+  </si>
+  <si>
+    <t>ชิ้นต่อพิมพ์,</t>
+  </si>
+  <si>
+    <t>ชิ้นต่อชุด,</t>
+  </si>
+  <si>
+    <t>ลักษณะผ้าเบรก,</t>
+  </si>
+  <si>
+    <t>ลักษณะแม่พิมพ์,</t>
+  </si>
+  <si>
+    <t>เวลาต่อพิมพ์,</t>
+  </si>
+  <si>
+    <t>พิมพ์ต่อ8ชั่วโมง,</t>
+  </si>
+  <si>
+    <t>หมายเหตุ</t>
   </si>
 </sst>
 </file>
@@ -384,14 +384,10 @@
   <dimension ref="A1:M1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5546875" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
